--- a/src/file/开发板功能整理.xlsx
+++ b/src/file/开发板功能整理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\official_resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user_project\coding_git\build_embed_linux_system\src\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4782E8-B562-4E2C-BF6A-F0C748B03349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29970C2B-699C-47DC-9BD0-414630A1F409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nxp-I.MX6ULL(正点原子阿尔法)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="153">
   <si>
     <t>LED</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,6 +624,22 @@
   </si>
   <si>
     <t>npu/yolo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcd display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpmi-nand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gsd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1194,7 +1210,9 @@
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1203,7 +1221,9 @@
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -1234,7 +1254,9 @@
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1344,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7C1A75-D494-4EB8-A9EE-617156ACC231}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1508,7 +1530,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1692,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FFF624-A806-4DBA-BA5A-888C04320D2E}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1813,7 +1835,9 @@
       <c r="B14" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
